--- a/medicine/Pharmacie/Arbre_à_myrrhe/Arbre_à_myrrhe.xlsx
+++ b/medicine/Pharmacie/Arbre_à_myrrhe/Arbre_à_myrrhe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_myrrhe</t>
+          <t>Arbre_à_myrrhe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Commiphora myrrha
 L'arbre à myrrhe  ou balsamier (Commiphora myrrha) est un arbre de la famille des Burseraceae originaire de l'Afrique de l'Est et de la péninsule Arabique. L'arbre à myrrhe était, dans la Grèce antique, consacré à Aphrodite.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_myrrhe</t>
+          <t>Arbre_à_myrrhe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce de Commiphora est un arbuste ou un petit arbre d'une hauteur d'environ 3 m, avec de nombreuses branches écailleuses, noueuses et hérissées d'épines.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de Commiphora est un arbuste ou un petit arbre d'une hauteur d'environ 3 m, avec de nombreuses branches écailleuses, noueuses et hérissées d'épines.
 Les petites feuilles ovales caduques sont composées de trois folioles inégales.
 À la fin de l'été, l'arbuste se couvre de fleurs rouge-orangé, tandis que son tronc se boursoufle de nœuds.
 C'est de ces boursouflures que s'écoule la myrrhe, en petites larmes jaunes que l'on recueille une fois qu'elles ont séché.
-Principaux constituants
-Gomme (30 à 60 %)
-Polysaccharides
-Résine (25 à 40 %)
-Huile essentielle (3 à 8 %): heerabolène, eugénol, divers furanosesquiterpènes</t>
+</t>
         </is>
       </c>
     </row>
@@ -532,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_myrrhe</t>
+          <t>Arbre_à_myrrhe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +557,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aire de répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'arbre à myrrhe pousse dans les régions sèches du nord-est de l'Afrique (Djibouti, Éthiopie, Soudan, Somalie, Kenya) et de la péninsule Arabique (Yémen et Oman).
-</t>
+          <t>Principaux constituants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gomme (30 à 60 %)
+Polysaccharides
+Résine (25 à 40 %)
+Huile essentielle (3 à 8 %): heerabolène, eugénol, divers furanosesquiterpènes</t>
         </is>
       </c>
     </row>
@@ -563,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_myrrhe</t>
+          <t>Arbre_à_myrrhe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,12 +596,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La résine du Commiphora myrrha, la myrrhe, est récoltée commercialement. Dans la religion chrétienne, l'encens et la myrrhe sont des offrandes des rois mages.
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre à myrrhe pousse dans les régions sèches du nord-est de l'Afrique (Djibouti, Éthiopie, Soudan, Somalie, Kenya) et de la péninsule Arabique (Yémen et Oman).
 </t>
         </is>
       </c>
@@ -594,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_myrrhe</t>
+          <t>Arbre_à_myrrhe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +629,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La résine du Commiphora myrrha, la myrrhe, est récoltée commercialement. Dans la religion chrétienne, l'encens et la myrrhe sont des offrandes des rois mages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arbre_à_myrrhe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_%C3%A0_myrrhe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Balsamodendrum myrrha Nees
 Commiphora molmol (Engl.) Engl.
